--- a/Local/Data/Export/DQ-Report_dqTestData_2020.xlsx
+++ b/Local/Data/Export/DQ-Report_dqTestData_2020.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="DQ_Report" sheetId="1" r:id="rId1"/>
-    <sheet name="Statistik" sheetId="2" r:id="rId2"/>
+    <sheet name="DQ_Metrics" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,7 +408,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation E75.0 - 309151 ist im BfArM nicht vorhanden.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E75.0 - 309151 ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation E75.0 - 309247 ist im BfArM nicht vorhanden.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E75.0 - 309247 ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10 Code G70 ist im BfArM Mapping nicht enthalten.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: G70 - 586 ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10 Code G70 ist im BfArM Mapping nicht enthalten.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: G70 - 589 ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation E84.80 - 589 ist im BfArM nicht vorhanden.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E84.80 - 589 ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
@@ -560,7 +560,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orpha Code test ist nicht valide.  Orpha Code test ist nicht valide.  Fall ist nicht eindeutig. Fehlender ICD-Code.  </t>
+          <t xml:space="preserve">Orpha Code test ist nicht valide.  Fall ist nicht eindeutig. Fehlender ICD-Code.  </t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation E66.89 - 320 ist im BfArM nicht vorhanden.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E66.89 - 320 ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
@@ -631,19 +631,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation G35.9 - 71529 ist im BfArM nicht vorhanden.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: G35.9 - 71529 ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>P_20085765</t>
+          <t>P_20085768</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>F_101658</t>
+          <t>F_101661</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -651,21 +651,26 @@
           <t>E75.2</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD10 Kodierung E75.2 ist nicht eindeutig. ICD10-Orpha Relation ist gemäß Tracer-Diagnosenliste vom Typ 1-m.  </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E75.2 - 342 ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>P_20085766</t>
+          <t>P_20085769</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>F_101659</t>
+          <t>F_101662</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -673,244 +678,146 @@
           <t>E75.0</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD10 Kodierung E75.0 ist nicht eindeutig. ICD10-Orpha Relation ist gemäß Tracer-Diagnosenliste vom Typ 1-m.  </t>
+          <t xml:space="preserve">Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E75.0 - 226 ist gemäß BfArM nicht plausibel. </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>P_20085767</t>
+          <t>P_20085770</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>F_101660</t>
+          <t>F_101663</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>E74.0</t>
+          <t>E75.2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>324</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD10 Kodierung E74.0 ist nicht eindeutig. ICD10-Orpha Relation ist gemäß Tracer-Diagnosenliste vom Typ 1-m.  </t>
+          <t>Unplausibles Geburtsdatum 2025-01-01 Datum liegt in der Zukunft.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>P_20085768</t>
+          <t>P_20085770</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>F_101661</t>
+          <t>F_101664</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>E75.2</t>
+          <t>E75.0</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>796</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation E75.2 - 342 ist im BfArM nicht vorhanden.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
+          <t>Unplausibles Aufnahmedatum 2051-01-02 Datum liegt in der Zukunft.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>P_20085769</t>
+          <t>P_20085772</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>F_101662</t>
+          <t>F_101665</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>E75.0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>226</t>
+          <t>D45</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation E75.0 - 226 ist im BfArM nicht vorhanden.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
+          <t>Unplausibles Aufnahmedatum 2025-01-02 Datum liegt in der Zukunft.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>P_20085770</t>
+          <t>P_20085773</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>F_101663</t>
+          <t>F_101666</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>E75.2</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>324</t>
+          <t>E84.0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Unplausibles Geburtsdatum 2025-01-01 Datum liegt in der Zukunft.</t>
+          <t xml:space="preserve">Unplausibles Geburtsdatum 1855-01-01 Max Alter 105. Fehlender Orpha Code.  </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>P_20085770</t>
+          <t>P_20085774</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>F_101664</t>
+          <t>F_101667</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>E75.0</t>
+          <t>E84.1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>796</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Unplausibles Aufnahmedatum 2051-01-02 Datum liegt in der Zukunft.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>P_20085772</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>F_101665</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>D45</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Unplausibles Aufnahmedatum 2025-01-02 Datum liegt in der Zukunft.</t>
+          <t xml:space="preserve">Orpha Code test ist nicht valide.  Kodierung ist nicht eindeutig. ICD10-Orpha Zuordnung: E84.1 - test ist gemäß BfArM nicht plausibel. Unplausibles Geburtsdatum 1840-01-01 Max Alter 105. </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>P_20085773</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>F_101666</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>E84.0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Unplausibles Geburtsdatum 1855-01-01 Max Alter 105. Fehlender Orpha Code.  </t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>P_20085774</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>F_101667</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>E84.1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Orpha Code test ist nicht valide.  Orpha Code test ist nicht valide.  Kodierung ist nicht eindeutig. Relation E84.1 - test ist im BfArM nicht vorhanden.  Unplausibles Geburtsdatum 1840-01-01 Max Alter 105. </t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>P_20085765</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>F_101658</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>E75.2</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>342</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kodierung ist nicht eindeutig. Relation E75.2 - 342 ist im BfArM nicht vorhanden.  ICD10-Orpha Zuordnung ist gemäß BfArM nicht plausibel. </t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Folgende mandatorische Items fehlen:  PLZ , Land , Kontakt-Klasse , Fall-Status , DiagnoseRolle , Diagnosedatum</t>
+          <t>Folgende mandatorische Items fehlen:  PLZ , Land , Kontakt_Klasse , Fall_Status , DiagnoseRolle , Diagnosedatum</t>
         </is>
       </c>
     </row>
@@ -921,7 +828,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -965,7 +872,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>rdCase_uniqueness_rate</t>
+          <t>rdCase_unambiguity_rate</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -975,47 +882,37 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>unique_rdCase_relativeFrequency</t>
+          <t>orphaCoding_no_py</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>orphaCoding_relativeFrequency</t>
+          <t>orphaCase_no_py</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>orphaCoding_no</t>
+          <t>unambigous_rdCase_no_py</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>orphaCase_no</t>
+          <t>rdCase_no_py</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>unique_rdCase_no</t>
+          <t>case_no_py</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>rdCase_no</t>
+          <t>patient_no_py</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>case_no</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>patient_no</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>inpatientCases_no</t>
+          <t>case_no_py_ipat</t>
         </is>
       </c>
     </row>
@@ -1032,48 +929,42 @@
         <v>42.86</v>
       </c>
       <c r="D2">
-        <v>2.25</v>
+        <v>2.36</v>
       </c>
       <c r="E2">
-        <v>66.67</v>
+        <v>50</v>
       </c>
       <c r="F2">
-        <v>6.17</v>
+        <v>6.41</v>
       </c>
       <c r="G2">
         <v>33.33</v>
       </c>
       <c r="H2">
-        <v>34.78</v>
+        <v>41.18</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="J2">
-        <v>0.08</v>
+        <v>15</v>
       </c>
       <c r="K2">
-        <v>0.15</v>
+        <v>15</v>
       </c>
       <c r="L2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="M2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N2">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="O2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="P2">
-        <v>26</v>
-      </c>
-      <c r="Q2">
-        <v>25</v>
-      </c>
-      <c r="R2">
         <v>10000</v>
       </c>
     </row>

--- a/Local/Data/Export/DQ-Report_dqTestData_2020.xlsx
+++ b/Local/Data/Export/DQ-Report_dqTestData_2020.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -814,13 +814,6 @@
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Folgende mandatorische Items fehlen:  PLZ , Land , Kontakt_Klasse , Fall_Status , DiagnoseRolle , Diagnosedatum</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -828,7 +821,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -847,12 +840,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>missing_item_rate</t>
+          <t>item_completeness_rate</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>missing_value_rate</t>
+          <t>value_completeness_rate</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -862,7 +855,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>outlier_rate</t>
+          <t>range_plausibility_rate</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -877,42 +870,97 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>duplication_rate</t>
+          <t>rdCase_dissimilarity_rate</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>rdCase_rel_py_ipat</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>tracerCase_rel_py_ipat</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>unambigous_rdCase_rel_py_ipat</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>orphaCase_rel_py_ipat</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>orphaCoding_no_py</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>tracerCase_no_py</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>orphaCase_no_py</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>unambigous_rdCase_no_py</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>rdCase_no_py</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>case_no_py</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>patient_no_py</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>case_no_py_ipat</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>orphaMissing_no_py</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>implausible_codeLink_no_py</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>missing_item_no_py</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>missing_value_no_py</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>outlier_no_py</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>duplicateCase_no_py</t>
         </is>
       </c>
     </row>
@@ -926,16 +974,16 @@
         <v>2020</v>
       </c>
       <c r="C2">
-        <v>42.86</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>2.36</v>
+        <v>59.51</v>
       </c>
       <c r="E2">
         <v>50</v>
       </c>
       <c r="F2">
-        <v>6.41</v>
+        <v>93.75</v>
       </c>
       <c r="G2">
         <v>33.33</v>
@@ -944,28 +992,61 @@
         <v>41.18</v>
       </c>
       <c r="I2">
-        <v>3.7</v>
+        <v>96.3</v>
       </c>
       <c r="J2">
+        <v>0.17</v>
+      </c>
+      <c r="K2">
+        <v>0.04</v>
+      </c>
+      <c r="L2">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M2">
+        <v>0.15</v>
+      </c>
+      <c r="N2">
         <v>15</v>
       </c>
-      <c r="K2">
+      <c r="O2">
+        <v>4</v>
+      </c>
+      <c r="P2">
         <v>15</v>
       </c>
-      <c r="L2">
+      <c r="Q2">
         <v>7</v>
       </c>
-      <c r="M2">
+      <c r="R2">
         <v>17</v>
       </c>
-      <c r="N2">
+      <c r="S2">
         <v>26</v>
       </c>
-      <c r="O2">
+      <c r="T2">
         <v>25</v>
       </c>
-      <c r="P2">
+      <c r="U2">
         <v>10000</v>
+      </c>
+      <c r="V2">
+        <v>2</v>
+      </c>
+      <c r="W2">
+        <v>10</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>5</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Local/Data/Export/DQ-Report_dqTestData_2020.xlsx
+++ b/Local/Data/Export/DQ-Report_dqTestData_2020.xlsx
@@ -821,7 +821,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -840,12 +840,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>item_completeness_rate</t>
+          <t>missing_item_rate</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>value_completeness_rate</t>
+          <t>missing_value_rate</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>range_plausibility_rate</t>
+          <t>outlier_rate</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -870,97 +870,57 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>rdCase_dissimilarity_rate</t>
+          <t>duplication_rate</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>rdCase_rel_py_ipat</t>
+          <t>tracerCase_rel_py_ipat</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>tracerCase_rel_py_ipat</t>
+          <t>unambigous_rdCase_rel_py_ipat</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>unambigous_rdCase_rel_py_ipat</t>
+          <t>orphaCase_rel_py_ipat</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>orphaCase_rel_py_ipat</t>
+          <t>orphaCoding_no_py</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>orphaCoding_no_py</t>
+          <t>orphaCase_no_py</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>tracerCase_no_py</t>
+          <t>unambigous_rdCase_no_py</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>orphaCase_no_py</t>
+          <t>rdCase_no_py</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>unambigous_rdCase_no_py</t>
+          <t>case_no_py</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>rdCase_no_py</t>
+          <t>patient_no_py</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>case_no_py</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>patient_no_py</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
           <t>case_no_py_ipat</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>orphaMissing_no_py</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>implausible_codeLink_no_py</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>missing_item_no_py</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>missing_value_no_py</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>outlier_no_py</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>duplicateCase_no_py</t>
         </is>
       </c>
     </row>
@@ -974,16 +934,16 @@
         <v>2020</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>59.51</v>
+        <v>40.49</v>
       </c>
       <c r="E2">
         <v>50</v>
       </c>
       <c r="F2">
-        <v>93.75</v>
+        <v>6.25</v>
       </c>
       <c r="G2">
         <v>33.33</v>
@@ -992,61 +952,37 @@
         <v>41.18</v>
       </c>
       <c r="I2">
-        <v>96.3</v>
+        <v>3.7</v>
       </c>
       <c r="J2">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
       <c r="K2">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L2">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="M2">
-        <v>0.15</v>
+        <v>15</v>
       </c>
       <c r="N2">
         <v>15</v>
       </c>
       <c r="O2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q2">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="R2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="S2">
-        <v>26</v>
-      </c>
-      <c r="T2">
-        <v>25</v>
-      </c>
-      <c r="U2">
         <v>10000</v>
-      </c>
-      <c r="V2">
-        <v>2</v>
-      </c>
-      <c r="W2">
-        <v>10</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>5</v>
-      </c>
-      <c r="AA2">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Local/Data/Export/DQ-Report_dqTestData_2020.xlsx
+++ b/Local/Data/Export/DQ-Report_dqTestData_2020.xlsx
@@ -821,7 +821,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -890,37 +890,42 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>case_no_py_ipat</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>case_no_py</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>patient_no_py</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>orphaCoding_no_py</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>rdCase_no_py</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>orphaCase_no_py</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>unambigous_rdCase_no_py</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>rdCase_no_py</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>case_no_py</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>patient_no_py</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>case_no_py_ipat</t>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>tracerCase_no_py</t>
         </is>
       </c>
     </row>
@@ -964,25 +969,28 @@
         <v>0.15</v>
       </c>
       <c r="M2">
+        <v>10000</v>
+      </c>
+      <c r="N2">
+        <v>26</v>
+      </c>
+      <c r="O2">
+        <v>25</v>
+      </c>
+      <c r="P2">
         <v>15</v>
       </c>
-      <c r="N2">
+      <c r="Q2">
+        <v>17</v>
+      </c>
+      <c r="R2">
         <v>15</v>
       </c>
-      <c r="O2">
+      <c r="S2">
         <v>7</v>
       </c>
-      <c r="P2">
-        <v>17</v>
-      </c>
-      <c r="Q2">
-        <v>26</v>
-      </c>
-      <c r="R2">
-        <v>25</v>
-      </c>
-      <c r="S2">
-        <v>10000</v>
+      <c r="T2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
